--- a/材料/时序图.xlsx
+++ b/材料/时序图.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学\大一下\Hydra-II\材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB18B26-3EDB-4F09-A883-6BAA45252D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53E4392-F7B5-4C77-AA5C-C20446899DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="写前端" sheetId="1" r:id="rId1"/>
+    <sheet name="轮询匹配" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>wr_sop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +49,6 @@
   </si>
   <si>
     <t>wr_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>match_end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,12 +83,81 @@
     <t>match_enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cur_port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cur_prior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match_suc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全动态模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRAM#3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PORT#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PORT#0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out:16选1多选器
+Pick:32选1多选器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问情况举例：SRAM#3与PORT#0和PORT#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半动态模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +181,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,8 +252,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -238,19 +325,372 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -262,16 +702,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -286,16 +738,118 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:BS17"/>
+  <dimension ref="A2:BS21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AQ23" sqref="AQ23"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -598,7 +1152,7 @@
   <sheetData>
     <row r="2" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AK2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -611,80 +1165,80 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="14">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="5">
         <v>1</v>
       </c>
-      <c r="AL3" s="4">
+      <c r="AL3" s="8">
         <v>0</v>
       </c>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4"/>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="4"/>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
-      <c r="BL3" s="4"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="4"/>
-      <c r="BR3" s="4"/>
-      <c r="BS3" s="4"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BO3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
     </row>
     <row r="4" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -696,80 +1250,80 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
       <c r="AJ4" s="2">
         <v>0</v>
       </c>
       <c r="AK4" s="2">
         <v>0</v>
       </c>
-      <c r="AL4" s="15">
+      <c r="AL4" s="16">
         <v>1</v>
       </c>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="15"/>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="15"/>
-      <c r="BF4" s="15"/>
-      <c r="BG4" s="15"/>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="15"/>
-      <c r="BK4" s="15"/>
-      <c r="BL4" s="15"/>
-      <c r="BM4" s="15"/>
-      <c r="BN4" s="15"/>
-      <c r="BO4" s="15"/>
-      <c r="BP4" s="15"/>
-      <c r="BQ4" s="15"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="16"/>
+      <c r="BQ4" s="16"/>
       <c r="BR4" s="2">
         <v>0</v>
       </c>
@@ -781,10 +1335,10 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1">
@@ -883,112 +1437,112 @@
       <c r="AI5" s="1">
         <v>31</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AK5" s="6" t="s">
+      <c r="AK5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AL5" s="16">
+      <c r="AL5" s="6">
         <v>0</v>
       </c>
-      <c r="AM5" s="16">
+      <c r="AM5" s="6">
         <v>1</v>
       </c>
-      <c r="AN5" s="16">
+      <c r="AN5" s="6">
         <v>2</v>
       </c>
-      <c r="AO5" s="16">
+      <c r="AO5" s="6">
         <v>3</v>
       </c>
-      <c r="AP5" s="16">
+      <c r="AP5" s="6">
         <v>4</v>
       </c>
-      <c r="AQ5" s="16">
+      <c r="AQ5" s="6">
         <v>5</v>
       </c>
-      <c r="AR5" s="16">
+      <c r="AR5" s="6">
         <v>6</v>
       </c>
-      <c r="AS5" s="16">
+      <c r="AS5" s="6">
         <v>7</v>
       </c>
-      <c r="AT5" s="16">
+      <c r="AT5" s="6">
         <v>8</v>
       </c>
-      <c r="AU5" s="16">
+      <c r="AU5" s="6">
         <v>9</v>
       </c>
-      <c r="AV5" s="16">
+      <c r="AV5" s="6">
         <v>10</v>
       </c>
-      <c r="AW5" s="16">
+      <c r="AW5" s="6">
         <v>11</v>
       </c>
-      <c r="AX5" s="16">
+      <c r="AX5" s="6">
         <v>12</v>
       </c>
-      <c r="AY5" s="16">
+      <c r="AY5" s="6">
         <v>13</v>
       </c>
-      <c r="AZ5" s="16">
+      <c r="AZ5" s="6">
         <v>14</v>
       </c>
-      <c r="BA5" s="16">
+      <c r="BA5" s="6">
         <v>15</v>
       </c>
-      <c r="BB5" s="16">
+      <c r="BB5" s="6">
         <v>16</v>
       </c>
-      <c r="BC5" s="16">
+      <c r="BC5" s="6">
         <v>17</v>
       </c>
-      <c r="BD5" s="16">
+      <c r="BD5" s="6">
         <v>18</v>
       </c>
-      <c r="BE5" s="16">
+      <c r="BE5" s="6">
         <v>19</v>
       </c>
-      <c r="BF5" s="16">
+      <c r="BF5" s="6">
         <v>20</v>
       </c>
-      <c r="BG5" s="16">
+      <c r="BG5" s="6">
         <v>21</v>
       </c>
-      <c r="BH5" s="16">
+      <c r="BH5" s="6">
         <v>22</v>
       </c>
-      <c r="BI5" s="16">
+      <c r="BI5" s="6">
         <v>23</v>
       </c>
-      <c r="BJ5" s="16">
+      <c r="BJ5" s="6">
         <v>24</v>
       </c>
-      <c r="BK5" s="16">
+      <c r="BK5" s="6">
         <v>25</v>
       </c>
-      <c r="BL5" s="16">
+      <c r="BL5" s="6">
         <v>26</v>
       </c>
-      <c r="BM5" s="16">
+      <c r="BM5" s="6">
         <v>27</v>
       </c>
-      <c r="BN5" s="16">
+      <c r="BN5" s="6">
         <v>28</v>
       </c>
-      <c r="BO5" s="16">
+      <c r="BO5" s="6">
         <v>29</v>
       </c>
-      <c r="BP5" s="16">
+      <c r="BP5" s="6">
         <v>30</v>
       </c>
-      <c r="BQ5" s="16">
+      <c r="BQ5" s="6">
         <v>31</v>
       </c>
-      <c r="BR5" s="6" t="s">
+      <c r="BR5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BS5" s="6" t="s">
+      <c r="BS5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -996,81 +1550,81 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
       <c r="AJ6" s="3">
         <v>1</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AK6" s="8">
         <v>0</v>
       </c>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="4"/>
-      <c r="BH6" s="4"/>
-      <c r="BI6" s="4"/>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="4"/>
-      <c r="BL6" s="4"/>
-      <c r="BM6" s="4"/>
-      <c r="BN6" s="4"/>
-      <c r="BO6" s="4"/>
-      <c r="BP6" s="4"/>
-      <c r="BQ6" s="4"/>
-      <c r="BR6" s="14">
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="8"/>
+      <c r="BO6" s="8"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="8"/>
+      <c r="BR6" s="5">
         <v>1</v>
       </c>
       <c r="BS6" s="2">
@@ -1079,7 +1633,7 @@
     </row>
     <row r="8" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1197,39 +1751,39 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="17">
         <v>2</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
       <c r="AJ9" s="1">
         <v>3</v>
       </c>
@@ -1239,97 +1793,97 @@
     </row>
     <row r="10" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9">
         <v>0</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="11">
+      <c r="E10" s="13">
         <v>1</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="8">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="9">
         <v>0</v>
       </c>
       <c r="AL10" s="10"/>
-      <c r="AM10" s="11">
+      <c r="AM10" s="13">
         <v>1</v>
       </c>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="12"/>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
-      <c r="AY10" s="12"/>
-      <c r="AZ10" s="12"/>
-      <c r="BA10" s="12"/>
-      <c r="BB10" s="12"/>
-      <c r="BC10" s="12"/>
-      <c r="BD10" s="12"/>
-      <c r="BE10" s="12"/>
-      <c r="BF10" s="12"/>
-      <c r="BG10" s="12"/>
-      <c r="BH10" s="12"/>
-      <c r="BI10" s="12"/>
-      <c r="BJ10" s="12"/>
-      <c r="BK10" s="12"/>
-      <c r="BL10" s="12"/>
-      <c r="BM10" s="12"/>
-      <c r="BN10" s="12"/>
-      <c r="BO10" s="12"/>
-      <c r="BP10" s="12"/>
-      <c r="BQ10" s="12"/>
-      <c r="BR10" s="13"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="14"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="14"/>
+      <c r="AW10" s="14"/>
+      <c r="AX10" s="14"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="14"/>
+      <c r="BA10" s="14"/>
+      <c r="BB10" s="14"/>
+      <c r="BC10" s="14"/>
+      <c r="BD10" s="14"/>
+      <c r="BE10" s="14"/>
+      <c r="BF10" s="14"/>
+      <c r="BG10" s="14"/>
+      <c r="BH10" s="14"/>
+      <c r="BI10" s="14"/>
+      <c r="BJ10" s="14"/>
+      <c r="BK10" s="14"/>
+      <c r="BL10" s="14"/>
+      <c r="BM10" s="14"/>
+      <c r="BN10" s="14"/>
+      <c r="BO10" s="14"/>
+      <c r="BP10" s="14"/>
+      <c r="BQ10" s="14"/>
+      <c r="BR10" s="15"/>
     </row>
     <row r="11" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="1">
@@ -1425,333 +1979,366 @@
       <c r="AI11" s="1">
         <v>30</v>
       </c>
-      <c r="AJ11" s="6" t="s">
+      <c r="AJ11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AJ12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
         <v>0</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
       <c r="AJ13" s="3">
         <v>1</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AK13" s="8">
         <v>0</v>
       </c>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4"/>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4"/>
-      <c r="BK13" s="4"/>
-      <c r="BL13" s="4"/>
-      <c r="BM13" s="4"/>
-      <c r="BN13" s="4"/>
-      <c r="BO13" s="4"/>
-      <c r="BP13" s="4"/>
-      <c r="BQ13" s="4"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="8"/>
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="8"/>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="8"/>
+      <c r="BO13" s="8"/>
+      <c r="BP13" s="8"/>
+      <c r="BQ13" s="8"/>
     </row>
     <row r="14" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" s="8">
         <v>0</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="5">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="7">
         <v>1</v>
       </c>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-      <c r="AV14" s="5"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="5"/>
-      <c r="BK14" s="5"/>
-      <c r="BL14" s="5"/>
-      <c r="BM14" s="5"/>
-      <c r="BN14" s="5"/>
-      <c r="BO14" s="5"/>
-      <c r="BP14" s="5"/>
-      <c r="BQ14" s="5"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BK14" s="7"/>
+      <c r="BL14" s="7"/>
+      <c r="BM14" s="7"/>
+      <c r="BN14" s="7"/>
+      <c r="BO14" s="7"/>
+      <c r="BP14" s="7"/>
+      <c r="BQ14" s="7"/>
     </row>
     <row r="16" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="18"/>
-      <c r="AN16" s="18"/>
-      <c r="AO16" s="18"/>
-      <c r="AP16" s="18"/>
-      <c r="AQ16" s="18"/>
-      <c r="AR16" s="18"/>
-      <c r="AS16" s="18"/>
-      <c r="AT16" s="18"/>
-      <c r="AU16" s="18"/>
-      <c r="AV16" s="18"/>
-      <c r="AW16" s="18"/>
-      <c r="AX16" s="18"/>
-      <c r="AY16" s="18"/>
-      <c r="AZ16" s="18"/>
-      <c r="BA16" s="18"/>
-      <c r="BB16" s="18"/>
-      <c r="BC16" s="18"/>
-      <c r="BD16" s="18"/>
-      <c r="BE16" s="18"/>
-      <c r="BF16" s="18"/>
-      <c r="BG16" s="18"/>
-      <c r="BH16" s="18"/>
-      <c r="BI16" s="18"/>
-      <c r="BJ16" s="18"/>
-      <c r="BK16" s="18"/>
-      <c r="BL16" s="18"/>
-      <c r="BM16" s="18"/>
-      <c r="BN16" s="18"/>
-      <c r="BO16" s="18"/>
-      <c r="BP16" s="18"/>
-      <c r="BQ16" s="18"/>
-      <c r="BR16" s="18"/>
-      <c r="BS16" s="18"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
+      <c r="BR16" s="12"/>
+      <c r="BS16" s="12"/>
     </row>
     <row r="17" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="18"/>
-      <c r="AN17" s="18"/>
-      <c r="AO17" s="18"/>
-      <c r="AP17" s="18"/>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="18"/>
-      <c r="AT17" s="18"/>
-      <c r="AU17" s="18"/>
-      <c r="AV17" s="18"/>
-      <c r="AW17" s="18"/>
-      <c r="AX17" s="18"/>
-      <c r="AY17" s="18"/>
-      <c r="AZ17" s="18"/>
-      <c r="BA17" s="18"/>
-      <c r="BB17" s="18"/>
-      <c r="BC17" s="18"/>
-      <c r="BD17" s="18"/>
-      <c r="BE17" s="18"/>
-      <c r="BF17" s="18"/>
-      <c r="BG17" s="18"/>
-      <c r="BH17" s="18"/>
-      <c r="BI17" s="18"/>
-      <c r="BJ17" s="18"/>
-      <c r="BK17" s="18"/>
-      <c r="BL17" s="18"/>
-      <c r="BM17" s="18"/>
-      <c r="BN17" s="18"/>
-      <c r="BO17" s="18"/>
-      <c r="BP17" s="18"/>
-      <c r="BQ17" s="18"/>
-      <c r="BR17" s="18"/>
-      <c r="BS17" s="18"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+      <c r="BR17" s="12"/>
+      <c r="BS17" s="12"/>
+    </row>
+    <row r="19" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ20" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK21" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E17:AL17"/>
+    <mergeCell ref="AM16:BS16"/>
+    <mergeCell ref="AM17:BS17"/>
+    <mergeCell ref="B13:AI13"/>
+    <mergeCell ref="AK13:BQ13"/>
     <mergeCell ref="AK14:BQ14"/>
     <mergeCell ref="B14:AJ14"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AL3:BS3"/>
     <mergeCell ref="E16:AL16"/>
-    <mergeCell ref="E17:AL17"/>
-    <mergeCell ref="AM16:BS16"/>
-    <mergeCell ref="AM17:BS17"/>
-    <mergeCell ref="B13:AI13"/>
-    <mergeCell ref="AK13:BQ13"/>
     <mergeCell ref="AM10:BR10"/>
     <mergeCell ref="AL4:BQ4"/>
     <mergeCell ref="AK6:BQ6"/>
@@ -1765,4 +2352,3891 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5F1BC7-DEE2-4287-8664-6CB6D2CCDDF3}">
+  <dimension ref="A1:AO45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:AG24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="2.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="26"/>
+    </row>
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="46">
+        <v>0</v>
+      </c>
+      <c r="C2" s="47">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47">
+        <v>2</v>
+      </c>
+      <c r="E2" s="47">
+        <v>3</v>
+      </c>
+      <c r="F2" s="47">
+        <v>4</v>
+      </c>
+      <c r="G2" s="47">
+        <v>5</v>
+      </c>
+      <c r="H2" s="47">
+        <v>6</v>
+      </c>
+      <c r="I2" s="47">
+        <v>7</v>
+      </c>
+      <c r="J2" s="47">
+        <v>8</v>
+      </c>
+      <c r="K2" s="47">
+        <v>9</v>
+      </c>
+      <c r="L2" s="47">
+        <v>10</v>
+      </c>
+      <c r="M2" s="47">
+        <v>11</v>
+      </c>
+      <c r="N2" s="47">
+        <v>12</v>
+      </c>
+      <c r="O2" s="47">
+        <v>13</v>
+      </c>
+      <c r="P2" s="47">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>15</v>
+      </c>
+      <c r="R2" s="47">
+        <v>16</v>
+      </c>
+      <c r="S2" s="47">
+        <v>17</v>
+      </c>
+      <c r="T2" s="47">
+        <v>18</v>
+      </c>
+      <c r="U2" s="47">
+        <v>19</v>
+      </c>
+      <c r="V2" s="47">
+        <v>20</v>
+      </c>
+      <c r="W2" s="47">
+        <v>21</v>
+      </c>
+      <c r="X2" s="47">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="47">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="47">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="47">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="47">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="47">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="47">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="47">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="47">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="48">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="26"/>
+    </row>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42">
+        <v>0</v>
+      </c>
+      <c r="B3" s="43">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44">
+        <v>3</v>
+      </c>
+      <c r="F3" s="27">
+        <v>4</v>
+      </c>
+      <c r="G3" s="27">
+        <v>5</v>
+      </c>
+      <c r="H3" s="27">
+        <v>6</v>
+      </c>
+      <c r="I3" s="27">
+        <v>7</v>
+      </c>
+      <c r="J3" s="27">
+        <v>8</v>
+      </c>
+      <c r="K3" s="27">
+        <v>9</v>
+      </c>
+      <c r="L3" s="27">
+        <v>10</v>
+      </c>
+      <c r="M3" s="27">
+        <v>11</v>
+      </c>
+      <c r="N3" s="27">
+        <v>12</v>
+      </c>
+      <c r="O3" s="27">
+        <v>13</v>
+      </c>
+      <c r="P3" s="27">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="27">
+        <v>15</v>
+      </c>
+      <c r="R3" s="27">
+        <v>16</v>
+      </c>
+      <c r="S3" s="27">
+        <v>17</v>
+      </c>
+      <c r="T3" s="27">
+        <v>18</v>
+      </c>
+      <c r="U3" s="27">
+        <v>19</v>
+      </c>
+      <c r="V3" s="27">
+        <v>20</v>
+      </c>
+      <c r="W3" s="27">
+        <v>21</v>
+      </c>
+      <c r="X3" s="27">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="27">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="27">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="27">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="27">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="27">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="27">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="27">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="34">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="26"/>
+    </row>
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>11</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1">
+        <v>13</v>
+      </c>
+      <c r="N4" s="1">
+        <v>14</v>
+      </c>
+      <c r="O4" s="1">
+        <v>15</v>
+      </c>
+      <c r="P4" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>17</v>
+      </c>
+      <c r="R4" s="1">
+        <v>18</v>
+      </c>
+      <c r="S4" s="1">
+        <v>19</v>
+      </c>
+      <c r="T4" s="1">
+        <v>20</v>
+      </c>
+      <c r="U4" s="1">
+        <v>21</v>
+      </c>
+      <c r="V4" s="1">
+        <v>22</v>
+      </c>
+      <c r="W4" s="1">
+        <v>23</v>
+      </c>
+      <c r="X4" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>29</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="28">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="26"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1">
+        <v>14</v>
+      </c>
+      <c r="M5" s="1">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1">
+        <v>17</v>
+      </c>
+      <c r="P5" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>19</v>
+      </c>
+      <c r="R5" s="1">
+        <v>20</v>
+      </c>
+      <c r="S5" s="1">
+        <v>21</v>
+      </c>
+      <c r="T5" s="1">
+        <v>22</v>
+      </c>
+      <c r="U5" s="1">
+        <v>23</v>
+      </c>
+      <c r="V5" s="1">
+        <v>24</v>
+      </c>
+      <c r="W5" s="1">
+        <v>25</v>
+      </c>
+      <c r="X5" s="1">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="29">
+        <v>3</v>
+      </c>
+      <c r="AH5" s="26"/>
+    </row>
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="1">
+        <v>16</v>
+      </c>
+      <c r="M6" s="1">
+        <v>17</v>
+      </c>
+      <c r="N6" s="1">
+        <v>18</v>
+      </c>
+      <c r="O6" s="1">
+        <v>19</v>
+      </c>
+      <c r="P6" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>21</v>
+      </c>
+      <c r="R6" s="1">
+        <v>22</v>
+      </c>
+      <c r="S6" s="1">
+        <v>23</v>
+      </c>
+      <c r="T6" s="1">
+        <v>24</v>
+      </c>
+      <c r="U6" s="1">
+        <v>25</v>
+      </c>
+      <c r="V6" s="1">
+        <v>26</v>
+      </c>
+      <c r="W6" s="1">
+        <v>27</v>
+      </c>
+      <c r="X6" s="1">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="28">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="26"/>
+    </row>
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1">
+        <v>19</v>
+      </c>
+      <c r="N7" s="1">
+        <v>20</v>
+      </c>
+      <c r="O7" s="1">
+        <v>21</v>
+      </c>
+      <c r="P7" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>23</v>
+      </c>
+      <c r="R7" s="1">
+        <v>24</v>
+      </c>
+      <c r="S7" s="1">
+        <v>25</v>
+      </c>
+      <c r="T7" s="1">
+        <v>26</v>
+      </c>
+      <c r="U7" s="1">
+        <v>27</v>
+      </c>
+      <c r="V7" s="1">
+        <v>28</v>
+      </c>
+      <c r="W7" s="1">
+        <v>29</v>
+      </c>
+      <c r="X7" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="28">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="26"/>
+    </row>
+    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1">
+        <v>18</v>
+      </c>
+      <c r="K8" s="1">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1">
+        <v>21</v>
+      </c>
+      <c r="N8" s="1">
+        <v>22</v>
+      </c>
+      <c r="O8" s="1">
+        <v>23</v>
+      </c>
+      <c r="P8" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>25</v>
+      </c>
+      <c r="R8" s="1">
+        <v>26</v>
+      </c>
+      <c r="S8" s="1">
+        <v>27</v>
+      </c>
+      <c r="T8" s="1">
+        <v>28</v>
+      </c>
+      <c r="U8" s="1">
+        <v>29</v>
+      </c>
+      <c r="V8" s="1">
+        <v>30</v>
+      </c>
+      <c r="W8" s="1">
+        <v>31</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG8" s="28">
+        <v>9</v>
+      </c>
+      <c r="AH8" s="26"/>
+    </row>
+    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>6</v>
+      </c>
+      <c r="B9" s="26">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1">
+        <v>23</v>
+      </c>
+      <c r="N9" s="1">
+        <v>24</v>
+      </c>
+      <c r="O9" s="1">
+        <v>25</v>
+      </c>
+      <c r="P9" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>27</v>
+      </c>
+      <c r="R9" s="1">
+        <v>28</v>
+      </c>
+      <c r="S9" s="1">
+        <v>29</v>
+      </c>
+      <c r="T9" s="1">
+        <v>30</v>
+      </c>
+      <c r="U9" s="1">
+        <v>31</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="28">
+        <v>11</v>
+      </c>
+      <c r="AH9" s="26"/>
+    </row>
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>7</v>
+      </c>
+      <c r="B10" s="26">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>19</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1">
+        <v>22</v>
+      </c>
+      <c r="K10" s="1">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1">
+        <v>24</v>
+      </c>
+      <c r="M10" s="1">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1">
+        <v>26</v>
+      </c>
+      <c r="O10" s="1">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>29</v>
+      </c>
+      <c r="R10" s="1">
+        <v>30</v>
+      </c>
+      <c r="S10" s="1">
+        <v>31</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2</v>
+      </c>
+      <c r="W10" s="3">
+        <v>3</v>
+      </c>
+      <c r="X10" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>10</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="28">
+        <v>13</v>
+      </c>
+      <c r="AH10" s="26"/>
+    </row>
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>8</v>
+      </c>
+      <c r="B11" s="26">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1">
+        <v>26</v>
+      </c>
+      <c r="M11" s="1">
+        <v>27</v>
+      </c>
+      <c r="N11" s="1">
+        <v>28</v>
+      </c>
+      <c r="O11" s="1">
+        <v>29</v>
+      </c>
+      <c r="P11" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>31</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2</v>
+      </c>
+      <c r="U11" s="3">
+        <v>3</v>
+      </c>
+      <c r="V11" s="1">
+        <v>4</v>
+      </c>
+      <c r="W11" s="1">
+        <v>5</v>
+      </c>
+      <c r="X11" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>13</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG11" s="28">
+        <v>15</v>
+      </c>
+      <c r="AH11" s="26"/>
+    </row>
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>9</v>
+      </c>
+      <c r="B12" s="26">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24</v>
+      </c>
+      <c r="I12" s="1">
+        <v>25</v>
+      </c>
+      <c r="J12" s="1">
+        <v>26</v>
+      </c>
+      <c r="K12" s="1">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1">
+        <v>28</v>
+      </c>
+      <c r="M12" s="1">
+        <v>29</v>
+      </c>
+      <c r="N12" s="1">
+        <v>30</v>
+      </c>
+      <c r="O12" s="1">
+        <v>31</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="3">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4</v>
+      </c>
+      <c r="U12" s="1">
+        <v>5</v>
+      </c>
+      <c r="V12" s="1">
+        <v>6</v>
+      </c>
+      <c r="W12" s="1">
+        <v>7</v>
+      </c>
+      <c r="X12" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>14</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>16</v>
+      </c>
+      <c r="AG12" s="28">
+        <v>17</v>
+      </c>
+      <c r="AH12" s="26"/>
+    </row>
+    <row r="13" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1">
+        <v>27</v>
+      </c>
+      <c r="J13" s="1">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1">
+        <v>30</v>
+      </c>
+      <c r="M13" s="1">
+        <v>31</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>6</v>
+      </c>
+      <c r="U13" s="1">
+        <v>7</v>
+      </c>
+      <c r="V13" s="1">
+        <v>8</v>
+      </c>
+      <c r="W13" s="1">
+        <v>9</v>
+      </c>
+      <c r="X13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>18</v>
+      </c>
+      <c r="AG13" s="28">
+        <v>19</v>
+      </c>
+      <c r="AH13" s="26"/>
+    </row>
+    <row r="14" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>11</v>
+      </c>
+      <c r="B14" s="26">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1">
+        <v>29</v>
+      </c>
+      <c r="J14" s="1">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1">
+        <v>31</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>5</v>
+      </c>
+      <c r="R14" s="1">
+        <v>6</v>
+      </c>
+      <c r="S14" s="1">
+        <v>7</v>
+      </c>
+      <c r="T14" s="1">
+        <v>8</v>
+      </c>
+      <c r="U14" s="1">
+        <v>9</v>
+      </c>
+      <c r="V14" s="1">
+        <v>10</v>
+      </c>
+      <c r="W14" s="1">
+        <v>11</v>
+      </c>
+      <c r="X14" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>14</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>17</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>18</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>19</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>20</v>
+      </c>
+      <c r="AG14" s="28">
+        <v>21</v>
+      </c>
+      <c r="AH14" s="26"/>
+    </row>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>12</v>
+      </c>
+      <c r="B15" s="26">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1">
+        <v>30</v>
+      </c>
+      <c r="I15" s="1">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5</v>
+      </c>
+      <c r="P15" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>7</v>
+      </c>
+      <c r="R15" s="1">
+        <v>8</v>
+      </c>
+      <c r="S15" s="1">
+        <v>9</v>
+      </c>
+      <c r="T15" s="1">
+        <v>10</v>
+      </c>
+      <c r="U15" s="1">
+        <v>11</v>
+      </c>
+      <c r="V15" s="1">
+        <v>12</v>
+      </c>
+      <c r="W15" s="1">
+        <v>13</v>
+      </c>
+      <c r="X15" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>16</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>22</v>
+      </c>
+      <c r="AG15" s="28">
+        <v>23</v>
+      </c>
+      <c r="AH15" s="26"/>
+    </row>
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>13</v>
+      </c>
+      <c r="B16" s="26">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1">
+        <v>31</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1">
+        <v>7</v>
+      </c>
+      <c r="P16" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>9</v>
+      </c>
+      <c r="R16" s="1">
+        <v>10</v>
+      </c>
+      <c r="S16" s="1">
+        <v>11</v>
+      </c>
+      <c r="T16" s="1">
+        <v>12</v>
+      </c>
+      <c r="U16" s="1">
+        <v>13</v>
+      </c>
+      <c r="V16" s="1">
+        <v>14</v>
+      </c>
+      <c r="W16" s="1">
+        <v>15</v>
+      </c>
+      <c r="X16" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>17</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>19</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>20</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>21</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>22</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>23</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>24</v>
+      </c>
+      <c r="AG16" s="28">
+        <v>25</v>
+      </c>
+      <c r="AH16" s="26"/>
+    </row>
+    <row r="17" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>14</v>
+      </c>
+      <c r="B17" s="26">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>6</v>
+      </c>
+      <c r="M17" s="1">
+        <v>7</v>
+      </c>
+      <c r="N17" s="1">
+        <v>8</v>
+      </c>
+      <c r="O17" s="1">
+        <v>9</v>
+      </c>
+      <c r="P17" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>11</v>
+      </c>
+      <c r="R17" s="1">
+        <v>12</v>
+      </c>
+      <c r="S17" s="1">
+        <v>13</v>
+      </c>
+      <c r="T17" s="1">
+        <v>14</v>
+      </c>
+      <c r="U17" s="1">
+        <v>15</v>
+      </c>
+      <c r="V17" s="1">
+        <v>16</v>
+      </c>
+      <c r="W17" s="1">
+        <v>17</v>
+      </c>
+      <c r="X17" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>22</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>24</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>26</v>
+      </c>
+      <c r="AG17" s="28">
+        <v>27</v>
+      </c>
+      <c r="AH17" s="26"/>
+    </row>
+    <row r="18" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="41">
+        <v>15</v>
+      </c>
+      <c r="B18" s="39">
+        <v>30</v>
+      </c>
+      <c r="C18" s="32">
+        <v>31</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18" s="32">
+        <v>2</v>
+      </c>
+      <c r="G18" s="35">
+        <v>3</v>
+      </c>
+      <c r="H18" s="32">
+        <v>4</v>
+      </c>
+      <c r="I18" s="32">
+        <v>5</v>
+      </c>
+      <c r="J18" s="32">
+        <v>6</v>
+      </c>
+      <c r="K18" s="32">
+        <v>7</v>
+      </c>
+      <c r="L18" s="32">
+        <v>8</v>
+      </c>
+      <c r="M18" s="32">
+        <v>9</v>
+      </c>
+      <c r="N18" s="32">
+        <v>10</v>
+      </c>
+      <c r="O18" s="32">
+        <v>11</v>
+      </c>
+      <c r="P18" s="32">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>13</v>
+      </c>
+      <c r="R18" s="32">
+        <v>14</v>
+      </c>
+      <c r="S18" s="32">
+        <v>15</v>
+      </c>
+      <c r="T18" s="32">
+        <v>16</v>
+      </c>
+      <c r="U18" s="32">
+        <v>17</v>
+      </c>
+      <c r="V18" s="32">
+        <v>18</v>
+      </c>
+      <c r="W18" s="32">
+        <v>19</v>
+      </c>
+      <c r="X18" s="32">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="32">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="32">
+        <v>22</v>
+      </c>
+      <c r="AA18" s="32">
+        <v>23</v>
+      </c>
+      <c r="AB18" s="32">
+        <v>24</v>
+      </c>
+      <c r="AC18" s="32">
+        <v>25</v>
+      </c>
+      <c r="AD18" s="32">
+        <v>26</v>
+      </c>
+      <c r="AE18" s="32">
+        <v>27</v>
+      </c>
+      <c r="AF18" s="32">
+        <v>28</v>
+      </c>
+      <c r="AG18" s="33">
+        <v>29</v>
+      </c>
+      <c r="AH18" s="26"/>
+    </row>
+    <row r="19" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="26"/>
+    </row>
+    <row r="20" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="50"/>
+      <c r="AA20" s="50"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="50"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="20"/>
+      <c r="AM20" s="20"/>
+      <c r="AN20" s="20"/>
+      <c r="AO20" s="21"/>
+    </row>
+    <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="23"/>
+      <c r="AN21" s="23"/>
+      <c r="AO21" s="24"/>
+    </row>
+    <row r="22" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="26"/>
+    </row>
+    <row r="23" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+    </row>
+    <row r="24" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="54"/>
+    </row>
+    <row r="25" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="46">
+        <v>0</v>
+      </c>
+      <c r="C25" s="47">
+        <v>1</v>
+      </c>
+      <c r="D25" s="47">
+        <v>2</v>
+      </c>
+      <c r="E25" s="47">
+        <v>3</v>
+      </c>
+      <c r="F25" s="47">
+        <v>4</v>
+      </c>
+      <c r="G25" s="47">
+        <v>5</v>
+      </c>
+      <c r="H25" s="47">
+        <v>6</v>
+      </c>
+      <c r="I25" s="47">
+        <v>7</v>
+      </c>
+      <c r="J25" s="47">
+        <v>8</v>
+      </c>
+      <c r="K25" s="47">
+        <v>9</v>
+      </c>
+      <c r="L25" s="47">
+        <v>10</v>
+      </c>
+      <c r="M25" s="47">
+        <v>11</v>
+      </c>
+      <c r="N25" s="47">
+        <v>12</v>
+      </c>
+      <c r="O25" s="47">
+        <v>13</v>
+      </c>
+      <c r="P25" s="47">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="47">
+        <v>15</v>
+      </c>
+      <c r="R25" s="47">
+        <v>16</v>
+      </c>
+      <c r="S25" s="47">
+        <v>17</v>
+      </c>
+      <c r="T25" s="47">
+        <v>18</v>
+      </c>
+      <c r="U25" s="47">
+        <v>19</v>
+      </c>
+      <c r="V25" s="47">
+        <v>20</v>
+      </c>
+      <c r="W25" s="47">
+        <v>21</v>
+      </c>
+      <c r="X25" s="47">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="47">
+        <v>23</v>
+      </c>
+      <c r="Z25" s="47">
+        <v>24</v>
+      </c>
+      <c r="AA25" s="47">
+        <v>25</v>
+      </c>
+      <c r="AB25" s="47">
+        <v>26</v>
+      </c>
+      <c r="AC25" s="47">
+        <v>27</v>
+      </c>
+      <c r="AD25" s="47">
+        <v>28</v>
+      </c>
+      <c r="AE25" s="47">
+        <v>29</v>
+      </c>
+      <c r="AF25" s="47">
+        <v>30</v>
+      </c>
+      <c r="AG25" s="48">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="42">
+        <v>0</v>
+      </c>
+      <c r="B26" s="43">
+        <v>0</v>
+      </c>
+      <c r="C26" s="27">
+        <v>1</v>
+      </c>
+      <c r="D26" s="43">
+        <v>0</v>
+      </c>
+      <c r="E26" s="44">
+        <v>3</v>
+      </c>
+      <c r="F26" s="43">
+        <v>0</v>
+      </c>
+      <c r="G26" s="27">
+        <v>5</v>
+      </c>
+      <c r="H26" s="43">
+        <v>0</v>
+      </c>
+      <c r="I26" s="27">
+        <v>7</v>
+      </c>
+      <c r="J26" s="43">
+        <v>0</v>
+      </c>
+      <c r="K26" s="27">
+        <v>9</v>
+      </c>
+      <c r="L26" s="43">
+        <v>0</v>
+      </c>
+      <c r="M26" s="27">
+        <v>11</v>
+      </c>
+      <c r="N26" s="43">
+        <v>0</v>
+      </c>
+      <c r="O26" s="27">
+        <v>13</v>
+      </c>
+      <c r="P26" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="27">
+        <v>15</v>
+      </c>
+      <c r="R26" s="43">
+        <v>0</v>
+      </c>
+      <c r="S26" s="27">
+        <v>17</v>
+      </c>
+      <c r="T26" s="43">
+        <v>0</v>
+      </c>
+      <c r="U26" s="27">
+        <v>19</v>
+      </c>
+      <c r="V26" s="43">
+        <v>0</v>
+      </c>
+      <c r="W26" s="27">
+        <v>21</v>
+      </c>
+      <c r="X26" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="27">
+        <v>23</v>
+      </c>
+      <c r="Z26" s="43">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="27">
+        <v>25</v>
+      </c>
+      <c r="AB26" s="43">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="27">
+        <v>27</v>
+      </c>
+      <c r="AD26" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="27">
+        <v>29</v>
+      </c>
+      <c r="AF26" s="43">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>1</v>
+      </c>
+      <c r="B27" s="26">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="26">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>5</v>
+      </c>
+      <c r="F27" s="26">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
+      <c r="H27" s="26">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>9</v>
+      </c>
+      <c r="J27" s="26">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>11</v>
+      </c>
+      <c r="L27" s="26">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>13</v>
+      </c>
+      <c r="N27" s="26">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>15</v>
+      </c>
+      <c r="P27" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>17</v>
+      </c>
+      <c r="R27" s="26">
+        <v>2</v>
+      </c>
+      <c r="S27" s="1">
+        <v>19</v>
+      </c>
+      <c r="T27" s="26">
+        <v>2</v>
+      </c>
+      <c r="U27" s="1">
+        <v>21</v>
+      </c>
+      <c r="V27" s="26">
+        <v>2</v>
+      </c>
+      <c r="W27" s="1">
+        <v>23</v>
+      </c>
+      <c r="X27" s="26">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z27" s="26">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB27" s="26">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>29</v>
+      </c>
+      <c r="AD27" s="26">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF27" s="26">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>2</v>
+      </c>
+      <c r="B28" s="43">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="43">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="43">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1">
+        <v>9</v>
+      </c>
+      <c r="H28" s="43">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>11</v>
+      </c>
+      <c r="J28" s="43">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>13</v>
+      </c>
+      <c r="L28" s="43">
+        <v>4</v>
+      </c>
+      <c r="M28" s="1">
+        <v>15</v>
+      </c>
+      <c r="N28" s="43">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>17</v>
+      </c>
+      <c r="P28" s="43">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>19</v>
+      </c>
+      <c r="R28" s="43">
+        <v>4</v>
+      </c>
+      <c r="S28" s="1">
+        <v>21</v>
+      </c>
+      <c r="T28" s="43">
+        <v>4</v>
+      </c>
+      <c r="U28" s="1">
+        <v>23</v>
+      </c>
+      <c r="V28" s="43">
+        <v>4</v>
+      </c>
+      <c r="W28" s="1">
+        <v>25</v>
+      </c>
+      <c r="X28" s="43">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>27</v>
+      </c>
+      <c r="Z28" s="43">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>29</v>
+      </c>
+      <c r="AB28" s="43">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>31</v>
+      </c>
+      <c r="AD28" s="43">
+        <v>4</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="43">
+        <v>4</v>
+      </c>
+      <c r="AG28" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>3</v>
+      </c>
+      <c r="B29" s="26">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+      <c r="D29" s="26">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9</v>
+      </c>
+      <c r="F29" s="26">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1">
+        <v>11</v>
+      </c>
+      <c r="H29" s="26">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1">
+        <v>13</v>
+      </c>
+      <c r="J29" s="26">
+        <v>6</v>
+      </c>
+      <c r="K29" s="1">
+        <v>15</v>
+      </c>
+      <c r="L29" s="26">
+        <v>6</v>
+      </c>
+      <c r="M29" s="1">
+        <v>17</v>
+      </c>
+      <c r="N29" s="26">
+        <v>6</v>
+      </c>
+      <c r="O29" s="1">
+        <v>19</v>
+      </c>
+      <c r="P29" s="26">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>21</v>
+      </c>
+      <c r="R29" s="26">
+        <v>6</v>
+      </c>
+      <c r="S29" s="1">
+        <v>23</v>
+      </c>
+      <c r="T29" s="26">
+        <v>6</v>
+      </c>
+      <c r="U29" s="1">
+        <v>25</v>
+      </c>
+      <c r="V29" s="26">
+        <v>6</v>
+      </c>
+      <c r="W29" s="1">
+        <v>27</v>
+      </c>
+      <c r="X29" s="26">
+        <v>6</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>29</v>
+      </c>
+      <c r="Z29" s="26">
+        <v>6</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>31</v>
+      </c>
+      <c r="AB29" s="26">
+        <v>6</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="26">
+        <v>6</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF29" s="26">
+        <v>6</v>
+      </c>
+      <c r="AG29" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>4</v>
+      </c>
+      <c r="B30" s="43">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9</v>
+      </c>
+      <c r="D30" s="43">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
+        <v>11</v>
+      </c>
+      <c r="F30" s="43">
+        <v>8</v>
+      </c>
+      <c r="G30" s="1">
+        <v>13</v>
+      </c>
+      <c r="H30" s="43">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1">
+        <v>15</v>
+      </c>
+      <c r="J30" s="43">
+        <v>8</v>
+      </c>
+      <c r="K30" s="1">
+        <v>17</v>
+      </c>
+      <c r="L30" s="43">
+        <v>8</v>
+      </c>
+      <c r="M30" s="1">
+        <v>19</v>
+      </c>
+      <c r="N30" s="43">
+        <v>8</v>
+      </c>
+      <c r="O30" s="1">
+        <v>21</v>
+      </c>
+      <c r="P30" s="43">
+        <v>8</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>23</v>
+      </c>
+      <c r="R30" s="43">
+        <v>8</v>
+      </c>
+      <c r="S30" s="1">
+        <v>25</v>
+      </c>
+      <c r="T30" s="43">
+        <v>8</v>
+      </c>
+      <c r="U30" s="1">
+        <v>27</v>
+      </c>
+      <c r="V30" s="43">
+        <v>8</v>
+      </c>
+      <c r="W30" s="1">
+        <v>29</v>
+      </c>
+      <c r="X30" s="43">
+        <v>8</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>31</v>
+      </c>
+      <c r="Z30" s="43">
+        <v>8</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="43">
+        <v>8</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="43">
+        <v>8</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF30" s="43">
+        <v>8</v>
+      </c>
+      <c r="AG30" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>5</v>
+      </c>
+      <c r="B31" s="26">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11</v>
+      </c>
+      <c r="D31" s="26">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1">
+        <v>13</v>
+      </c>
+      <c r="F31" s="26">
+        <v>10</v>
+      </c>
+      <c r="G31" s="1">
+        <v>15</v>
+      </c>
+      <c r="H31" s="26">
+        <v>10</v>
+      </c>
+      <c r="I31" s="1">
+        <v>17</v>
+      </c>
+      <c r="J31" s="26">
+        <v>10</v>
+      </c>
+      <c r="K31" s="1">
+        <v>19</v>
+      </c>
+      <c r="L31" s="26">
+        <v>10</v>
+      </c>
+      <c r="M31" s="1">
+        <v>21</v>
+      </c>
+      <c r="N31" s="26">
+        <v>10</v>
+      </c>
+      <c r="O31" s="1">
+        <v>23</v>
+      </c>
+      <c r="P31" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>25</v>
+      </c>
+      <c r="R31" s="26">
+        <v>10</v>
+      </c>
+      <c r="S31" s="1">
+        <v>27</v>
+      </c>
+      <c r="T31" s="26">
+        <v>10</v>
+      </c>
+      <c r="U31" s="1">
+        <v>29</v>
+      </c>
+      <c r="V31" s="26">
+        <v>10</v>
+      </c>
+      <c r="W31" s="1">
+        <v>31</v>
+      </c>
+      <c r="X31" s="26">
+        <v>10</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="26">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="26">
+        <v>10</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD31" s="26">
+        <v>10</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF31" s="26">
+        <v>10</v>
+      </c>
+      <c r="AG31" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>6</v>
+      </c>
+      <c r="B32" s="43">
+        <v>12</v>
+      </c>
+      <c r="C32" s="1">
+        <v>13</v>
+      </c>
+      <c r="D32" s="43">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
+        <v>15</v>
+      </c>
+      <c r="F32" s="43">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1">
+        <v>17</v>
+      </c>
+      <c r="H32" s="43">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1">
+        <v>19</v>
+      </c>
+      <c r="J32" s="43">
+        <v>12</v>
+      </c>
+      <c r="K32" s="1">
+        <v>21</v>
+      </c>
+      <c r="L32" s="43">
+        <v>12</v>
+      </c>
+      <c r="M32" s="1">
+        <v>23</v>
+      </c>
+      <c r="N32" s="43">
+        <v>12</v>
+      </c>
+      <c r="O32" s="1">
+        <v>25</v>
+      </c>
+      <c r="P32" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>27</v>
+      </c>
+      <c r="R32" s="43">
+        <v>12</v>
+      </c>
+      <c r="S32" s="1">
+        <v>29</v>
+      </c>
+      <c r="T32" s="43">
+        <v>12</v>
+      </c>
+      <c r="U32" s="1">
+        <v>31</v>
+      </c>
+      <c r="V32" s="43">
+        <v>12</v>
+      </c>
+      <c r="W32" s="1">
+        <v>1</v>
+      </c>
+      <c r="X32" s="43">
+        <v>12</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="43">
+        <v>12</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB32" s="43">
+        <v>12</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD32" s="43">
+        <v>12</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>9</v>
+      </c>
+      <c r="AF32" s="43">
+        <v>12</v>
+      </c>
+      <c r="AG32" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>7</v>
+      </c>
+      <c r="B33" s="26">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15</v>
+      </c>
+      <c r="D33" s="26">
+        <v>14</v>
+      </c>
+      <c r="E33" s="1">
+        <v>17</v>
+      </c>
+      <c r="F33" s="26">
+        <v>14</v>
+      </c>
+      <c r="G33" s="1">
+        <v>19</v>
+      </c>
+      <c r="H33" s="26">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1">
+        <v>21</v>
+      </c>
+      <c r="J33" s="26">
+        <v>14</v>
+      </c>
+      <c r="K33" s="1">
+        <v>23</v>
+      </c>
+      <c r="L33" s="26">
+        <v>14</v>
+      </c>
+      <c r="M33" s="1">
+        <v>25</v>
+      </c>
+      <c r="N33" s="26">
+        <v>14</v>
+      </c>
+      <c r="O33" s="1">
+        <v>27</v>
+      </c>
+      <c r="P33" s="26">
+        <v>14</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>29</v>
+      </c>
+      <c r="R33" s="26">
+        <v>14</v>
+      </c>
+      <c r="S33" s="1">
+        <v>31</v>
+      </c>
+      <c r="T33" s="26">
+        <v>14</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1</v>
+      </c>
+      <c r="V33" s="26">
+        <v>14</v>
+      </c>
+      <c r="W33" s="3">
+        <v>3</v>
+      </c>
+      <c r="X33" s="26">
+        <v>14</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z33" s="26">
+        <v>14</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB33" s="26">
+        <v>14</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD33" s="26">
+        <v>14</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF33" s="26">
+        <v>14</v>
+      </c>
+      <c r="AG33" s="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>8</v>
+      </c>
+      <c r="B34" s="43">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1">
+        <v>17</v>
+      </c>
+      <c r="D34" s="43">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1">
+        <v>19</v>
+      </c>
+      <c r="F34" s="43">
+        <v>16</v>
+      </c>
+      <c r="G34" s="1">
+        <v>21</v>
+      </c>
+      <c r="H34" s="43">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1">
+        <v>23</v>
+      </c>
+      <c r="J34" s="43">
+        <v>16</v>
+      </c>
+      <c r="K34" s="1">
+        <v>25</v>
+      </c>
+      <c r="L34" s="43">
+        <v>16</v>
+      </c>
+      <c r="M34" s="1">
+        <v>27</v>
+      </c>
+      <c r="N34" s="43">
+        <v>16</v>
+      </c>
+      <c r="O34" s="1">
+        <v>29</v>
+      </c>
+      <c r="P34" s="43">
+        <v>16</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>31</v>
+      </c>
+      <c r="R34" s="43">
+        <v>16</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
+      <c r="T34" s="43">
+        <v>16</v>
+      </c>
+      <c r="U34" s="3">
+        <v>3</v>
+      </c>
+      <c r="V34" s="43">
+        <v>16</v>
+      </c>
+      <c r="W34" s="1">
+        <v>5</v>
+      </c>
+      <c r="X34" s="43">
+        <v>16</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z34" s="43">
+        <v>16</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB34" s="43">
+        <v>16</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD34" s="43">
+        <v>16</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>13</v>
+      </c>
+      <c r="AF34" s="43">
+        <v>16</v>
+      </c>
+      <c r="AG34" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>9</v>
+      </c>
+      <c r="B35" s="26">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1">
+        <v>19</v>
+      </c>
+      <c r="D35" s="26">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1">
+        <v>21</v>
+      </c>
+      <c r="F35" s="26">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1">
+        <v>23</v>
+      </c>
+      <c r="H35" s="26">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1">
+        <v>25</v>
+      </c>
+      <c r="J35" s="26">
+        <v>18</v>
+      </c>
+      <c r="K35" s="1">
+        <v>27</v>
+      </c>
+      <c r="L35" s="26">
+        <v>18</v>
+      </c>
+      <c r="M35" s="1">
+        <v>29</v>
+      </c>
+      <c r="N35" s="26">
+        <v>18</v>
+      </c>
+      <c r="O35" s="1">
+        <v>31</v>
+      </c>
+      <c r="P35" s="26">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="26">
+        <v>18</v>
+      </c>
+      <c r="S35" s="3">
+        <v>3</v>
+      </c>
+      <c r="T35" s="26">
+        <v>18</v>
+      </c>
+      <c r="U35" s="1">
+        <v>5</v>
+      </c>
+      <c r="V35" s="26">
+        <v>18</v>
+      </c>
+      <c r="W35" s="1">
+        <v>7</v>
+      </c>
+      <c r="X35" s="26">
+        <v>18</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z35" s="26">
+        <v>18</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB35" s="26">
+        <v>18</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD35" s="26">
+        <v>18</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF35" s="26">
+        <v>18</v>
+      </c>
+      <c r="AG35" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>10</v>
+      </c>
+      <c r="B36" s="43">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1">
+        <v>21</v>
+      </c>
+      <c r="D36" s="43">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1">
+        <v>23</v>
+      </c>
+      <c r="F36" s="43">
+        <v>20</v>
+      </c>
+      <c r="G36" s="1">
+        <v>25</v>
+      </c>
+      <c r="H36" s="43">
+        <v>20</v>
+      </c>
+      <c r="I36" s="1">
+        <v>27</v>
+      </c>
+      <c r="J36" s="43">
+        <v>20</v>
+      </c>
+      <c r="K36" s="1">
+        <v>29</v>
+      </c>
+      <c r="L36" s="43">
+        <v>20</v>
+      </c>
+      <c r="M36" s="1">
+        <v>31</v>
+      </c>
+      <c r="N36" s="43">
+        <v>20</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="43">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>3</v>
+      </c>
+      <c r="R36" s="43">
+        <v>20</v>
+      </c>
+      <c r="S36" s="1">
+        <v>5</v>
+      </c>
+      <c r="T36" s="43">
+        <v>20</v>
+      </c>
+      <c r="U36" s="1">
+        <v>7</v>
+      </c>
+      <c r="V36" s="43">
+        <v>20</v>
+      </c>
+      <c r="W36" s="1">
+        <v>9</v>
+      </c>
+      <c r="X36" s="43">
+        <v>20</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>11</v>
+      </c>
+      <c r="Z36" s="43">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB36" s="43">
+        <v>20</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>15</v>
+      </c>
+      <c r="AD36" s="43">
+        <v>20</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF36" s="43">
+        <v>20</v>
+      </c>
+      <c r="AG36" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>11</v>
+      </c>
+      <c r="B37" s="26">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1">
+        <v>23</v>
+      </c>
+      <c r="D37" s="26">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1">
+        <v>25</v>
+      </c>
+      <c r="F37" s="26">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1">
+        <v>27</v>
+      </c>
+      <c r="H37" s="26">
+        <v>22</v>
+      </c>
+      <c r="I37" s="1">
+        <v>29</v>
+      </c>
+      <c r="J37" s="26">
+        <v>22</v>
+      </c>
+      <c r="K37" s="1">
+        <v>31</v>
+      </c>
+      <c r="L37" s="26">
+        <v>22</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="26">
+        <v>22</v>
+      </c>
+      <c r="O37" s="3">
+        <v>3</v>
+      </c>
+      <c r="P37" s="26">
+        <v>22</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>5</v>
+      </c>
+      <c r="R37" s="26">
+        <v>22</v>
+      </c>
+      <c r="S37" s="1">
+        <v>7</v>
+      </c>
+      <c r="T37" s="26">
+        <v>22</v>
+      </c>
+      <c r="U37" s="1">
+        <v>9</v>
+      </c>
+      <c r="V37" s="26">
+        <v>22</v>
+      </c>
+      <c r="W37" s="1">
+        <v>11</v>
+      </c>
+      <c r="X37" s="26">
+        <v>22</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z37" s="26">
+        <v>22</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>15</v>
+      </c>
+      <c r="AB37" s="26">
+        <v>22</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>17</v>
+      </c>
+      <c r="AD37" s="26">
+        <v>22</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>19</v>
+      </c>
+      <c r="AF37" s="26">
+        <v>22</v>
+      </c>
+      <c r="AG37" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
+        <v>12</v>
+      </c>
+      <c r="B38" s="43">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1">
+        <v>25</v>
+      </c>
+      <c r="D38" s="43">
+        <v>24</v>
+      </c>
+      <c r="E38" s="1">
+        <v>27</v>
+      </c>
+      <c r="F38" s="43">
+        <v>24</v>
+      </c>
+      <c r="G38" s="1">
+        <v>29</v>
+      </c>
+      <c r="H38" s="43">
+        <v>24</v>
+      </c>
+      <c r="I38" s="1">
+        <v>31</v>
+      </c>
+      <c r="J38" s="43">
+        <v>24</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="43">
+        <v>24</v>
+      </c>
+      <c r="M38" s="3">
+        <v>3</v>
+      </c>
+      <c r="N38" s="43">
+        <v>24</v>
+      </c>
+      <c r="O38" s="1">
+        <v>5</v>
+      </c>
+      <c r="P38" s="43">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>7</v>
+      </c>
+      <c r="R38" s="43">
+        <v>24</v>
+      </c>
+      <c r="S38" s="1">
+        <v>9</v>
+      </c>
+      <c r="T38" s="43">
+        <v>24</v>
+      </c>
+      <c r="U38" s="1">
+        <v>11</v>
+      </c>
+      <c r="V38" s="43">
+        <v>24</v>
+      </c>
+      <c r="W38" s="1">
+        <v>13</v>
+      </c>
+      <c r="X38" s="43">
+        <v>24</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>15</v>
+      </c>
+      <c r="Z38" s="43">
+        <v>24</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>17</v>
+      </c>
+      <c r="AB38" s="43">
+        <v>24</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD38" s="43">
+        <v>24</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF38" s="43">
+        <v>24</v>
+      </c>
+      <c r="AG38" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
+        <v>13</v>
+      </c>
+      <c r="B39" s="26">
+        <v>26</v>
+      </c>
+      <c r="C39" s="1">
+        <v>27</v>
+      </c>
+      <c r="D39" s="26">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1">
+        <v>29</v>
+      </c>
+      <c r="F39" s="26">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1">
+        <v>31</v>
+      </c>
+      <c r="H39" s="26">
+        <v>26</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="26">
+        <v>26</v>
+      </c>
+      <c r="K39" s="3">
+        <v>3</v>
+      </c>
+      <c r="L39" s="26">
+        <v>26</v>
+      </c>
+      <c r="M39" s="1">
+        <v>5</v>
+      </c>
+      <c r="N39" s="26">
+        <v>26</v>
+      </c>
+      <c r="O39" s="1">
+        <v>7</v>
+      </c>
+      <c r="P39" s="26">
+        <v>26</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>9</v>
+      </c>
+      <c r="R39" s="26">
+        <v>26</v>
+      </c>
+      <c r="S39" s="1">
+        <v>11</v>
+      </c>
+      <c r="T39" s="26">
+        <v>26</v>
+      </c>
+      <c r="U39" s="1">
+        <v>13</v>
+      </c>
+      <c r="V39" s="26">
+        <v>26</v>
+      </c>
+      <c r="W39" s="1">
+        <v>15</v>
+      </c>
+      <c r="X39" s="26">
+        <v>26</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>17</v>
+      </c>
+      <c r="Z39" s="26">
+        <v>26</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>19</v>
+      </c>
+      <c r="AB39" s="26">
+        <v>26</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>21</v>
+      </c>
+      <c r="AD39" s="26">
+        <v>26</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>23</v>
+      </c>
+      <c r="AF39" s="26">
+        <v>26</v>
+      </c>
+      <c r="AG39" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40">
+        <v>14</v>
+      </c>
+      <c r="B40" s="43">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1">
+        <v>29</v>
+      </c>
+      <c r="D40" s="43">
+        <v>28</v>
+      </c>
+      <c r="E40" s="1">
+        <v>31</v>
+      </c>
+      <c r="F40" s="43">
+        <v>28</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="43">
+        <v>28</v>
+      </c>
+      <c r="I40" s="3">
+        <v>3</v>
+      </c>
+      <c r="J40" s="43">
+        <v>28</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5</v>
+      </c>
+      <c r="L40" s="43">
+        <v>28</v>
+      </c>
+      <c r="M40" s="1">
+        <v>7</v>
+      </c>
+      <c r="N40" s="43">
+        <v>28</v>
+      </c>
+      <c r="O40" s="1">
+        <v>9</v>
+      </c>
+      <c r="P40" s="43">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>11</v>
+      </c>
+      <c r="R40" s="43">
+        <v>28</v>
+      </c>
+      <c r="S40" s="1">
+        <v>13</v>
+      </c>
+      <c r="T40" s="43">
+        <v>28</v>
+      </c>
+      <c r="U40" s="1">
+        <v>15</v>
+      </c>
+      <c r="V40" s="43">
+        <v>28</v>
+      </c>
+      <c r="W40" s="1">
+        <v>17</v>
+      </c>
+      <c r="X40" s="43">
+        <v>28</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>19</v>
+      </c>
+      <c r="Z40" s="43">
+        <v>28</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>21</v>
+      </c>
+      <c r="AB40" s="43">
+        <v>28</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>23</v>
+      </c>
+      <c r="AD40" s="43">
+        <v>28</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>25</v>
+      </c>
+      <c r="AF40" s="43">
+        <v>28</v>
+      </c>
+      <c r="AG40" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="41">
+        <v>15</v>
+      </c>
+      <c r="B41" s="26">
+        <v>30</v>
+      </c>
+      <c r="C41" s="32">
+        <v>31</v>
+      </c>
+      <c r="D41" s="26">
+        <v>30</v>
+      </c>
+      <c r="E41" s="32">
+        <v>1</v>
+      </c>
+      <c r="F41" s="26">
+        <v>30</v>
+      </c>
+      <c r="G41" s="35">
+        <v>3</v>
+      </c>
+      <c r="H41" s="26">
+        <v>30</v>
+      </c>
+      <c r="I41" s="32">
+        <v>5</v>
+      </c>
+      <c r="J41" s="26">
+        <v>30</v>
+      </c>
+      <c r="K41" s="32">
+        <v>7</v>
+      </c>
+      <c r="L41" s="26">
+        <v>30</v>
+      </c>
+      <c r="M41" s="32">
+        <v>9</v>
+      </c>
+      <c r="N41" s="26">
+        <v>30</v>
+      </c>
+      <c r="O41" s="32">
+        <v>11</v>
+      </c>
+      <c r="P41" s="26">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="32">
+        <v>13</v>
+      </c>
+      <c r="R41" s="26">
+        <v>30</v>
+      </c>
+      <c r="S41" s="32">
+        <v>15</v>
+      </c>
+      <c r="T41" s="26">
+        <v>30</v>
+      </c>
+      <c r="U41" s="32">
+        <v>17</v>
+      </c>
+      <c r="V41" s="26">
+        <v>30</v>
+      </c>
+      <c r="W41" s="32">
+        <v>19</v>
+      </c>
+      <c r="X41" s="26">
+        <v>30</v>
+      </c>
+      <c r="Y41" s="32">
+        <v>21</v>
+      </c>
+      <c r="Z41" s="26">
+        <v>30</v>
+      </c>
+      <c r="AA41" s="32">
+        <v>23</v>
+      </c>
+      <c r="AB41" s="26">
+        <v>30</v>
+      </c>
+      <c r="AC41" s="32">
+        <v>25</v>
+      </c>
+      <c r="AD41" s="26">
+        <v>30</v>
+      </c>
+      <c r="AE41" s="32">
+        <v>27</v>
+      </c>
+      <c r="AF41" s="26">
+        <v>30</v>
+      </c>
+      <c r="AG41" s="33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37"/>
+      <c r="AB42" s="37"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="37"/>
+      <c r="AE42" s="37"/>
+      <c r="AF42" s="37"/>
+      <c r="AG42" s="38"/>
+    </row>
+    <row r="43" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="50"/>
+      <c r="V43" s="50"/>
+      <c r="W43" s="50"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="50"/>
+      <c r="AA43" s="50"/>
+      <c r="AB43" s="50"/>
+      <c r="AC43" s="50"/>
+      <c r="AD43" s="50"/>
+      <c r="AE43" s="50"/>
+      <c r="AF43" s="50"/>
+      <c r="AG43" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI43" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="20"/>
+      <c r="AL43" s="20"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="20"/>
+      <c r="AO43" s="21"/>
+    </row>
+    <row r="44" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG44" s="28"/>
+      <c r="AI44" s="22"/>
+      <c r="AJ44" s="23"/>
+      <c r="AK44" s="23"/>
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23"/>
+      <c r="AN44" s="23"/>
+      <c r="AO44" s="24"/>
+    </row>
+    <row r="45" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="32"/>
+      <c r="AF45" s="32"/>
+      <c r="AG45" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="AI20:AO21"/>
+    <mergeCell ref="A19:AG19"/>
+    <mergeCell ref="A24:AG24"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AI43:AO44"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/材料/时序图.xlsx
+++ b/材料/时序图.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大学\大一下\Hydra-II\材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53E4392-F7B5-4C77-AA5C-C20446899DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6228F691-7513-4F22-8815-09D39CD78F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="写前端" sheetId="1" r:id="rId1"/>
     <sheet name="轮询匹配" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>wr_sop</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +161,34 @@
     <t>半动态模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>发送数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRAM hook to PORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PORT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去向:Port3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRAM#N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +301,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -688,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -850,6 +905,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:BS21"/>
+  <dimension ref="A2:BS34"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2144,84 +2208,47 @@
       <c r="BP14" s="7"/>
       <c r="BQ14" s="7"/>
     </row>
-    <row r="16" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
-      <c r="AV16" s="12"/>
-      <c r="AW16" s="12"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="12"/>
-      <c r="AZ16" s="12"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="12"/>
-      <c r="BC16" s="12"/>
-      <c r="BD16" s="12"/>
-      <c r="BE16" s="12"/>
-      <c r="BF16" s="12"/>
-      <c r="BG16" s="12"/>
-      <c r="BH16" s="12"/>
-      <c r="BI16" s="12"/>
-      <c r="BJ16" s="12"/>
-      <c r="BK16" s="12"/>
-      <c r="BL16" s="12"/>
-      <c r="BM16" s="12"/>
-      <c r="BN16" s="12"/>
-      <c r="BO16" s="12"/>
-      <c r="BP16" s="12"/>
-      <c r="BQ16" s="12"/>
-      <c r="BR16" s="12"/>
-      <c r="BS16" s="12"/>
+    <row r="15" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="55"/>
+      <c r="AP15" s="55"/>
+      <c r="AQ15" s="55"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="55"/>
+      <c r="AV15" s="55"/>
+      <c r="AW15" s="55"/>
+      <c r="AX15" s="55"/>
+      <c r="AY15" s="55"/>
+      <c r="AZ15" s="55"/>
+      <c r="BA15" s="55"/>
+      <c r="BB15" s="55"/>
+      <c r="BC15" s="55"/>
+      <c r="BD15" s="55"/>
+      <c r="BE15" s="55"/>
+      <c r="BF15" s="55"/>
+      <c r="BG15" s="55"/>
+      <c r="BH15" s="55"/>
+      <c r="BI15" s="55"/>
+      <c r="BJ15" s="55"/>
+      <c r="BK15" s="55"/>
+      <c r="BL15" s="55"/>
+      <c r="BM15" s="55"/>
+      <c r="BN15" s="55"/>
+      <c r="BO15" s="55"/>
+      <c r="BP15" s="55"/>
+      <c r="BQ15" s="55"/>
+      <c r="BR15" s="55"/>
     </row>
     <row r="17" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>4</v>
@@ -2294,20 +2321,84 @@
       <c r="BR17" s="12"/>
       <c r="BS17" s="12"/>
     </row>
-    <row r="19" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK19" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="18" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12"/>
+      <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
+      <c r="BR18" s="12"/>
+      <c r="BS18" s="12"/>
     </row>
     <row r="20" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ20" s="19" t="s">
         <v>18</v>
@@ -2318,7 +2409,7 @@
     </row>
     <row r="21" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ21" s="19" t="s">
         <v>18</v>
@@ -2327,18 +2418,100 @@
         <v>19</v>
       </c>
     </row>
+    <row r="22" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ22" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="57"/>
+    </row>
+    <row r="31" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:71" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>4</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3</v>
+      </c>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+    </row>
+    <row r="33" spans="8:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="8:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E17:AL17"/>
-    <mergeCell ref="AM16:BS16"/>
+    <mergeCell ref="E18:AL18"/>
     <mergeCell ref="AM17:BS17"/>
+    <mergeCell ref="AM18:BS18"/>
     <mergeCell ref="B13:AI13"/>
     <mergeCell ref="AK13:BQ13"/>
     <mergeCell ref="AK14:BQ14"/>
     <mergeCell ref="B14:AJ14"/>
     <mergeCell ref="AK10:AL10"/>
     <mergeCell ref="AL3:BS3"/>
-    <mergeCell ref="E16:AL16"/>
+    <mergeCell ref="E17:AL17"/>
     <mergeCell ref="AM10:BR10"/>
     <mergeCell ref="AL4:BQ4"/>
     <mergeCell ref="AK6:BQ6"/>
@@ -2358,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5F1BC7-DEE2-4287-8664-6CB6D2CCDDF3}">
   <dimension ref="A1:AO45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:AG24"/>
+    <sheetView topLeftCell="A40" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AC54" sqref="A49:AC54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
